--- a/data/system/attenuation_parameters.xlsx
+++ b/data/system/attenuation_parameters.xlsx
@@ -14,23 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
-  <si>
-    <t>AttenuationID</t>
-  </si>
-  <si>
-    <t>AttenuationType</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>SNAP-Classic</t>
   </si>
   <si>
-    <t>Bosnia;Croatia-E;Montenegro;Serbia-W, Slovenia, Hungary, Romania</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
     <t>S-Italy, Mediterranean</t>
   </si>
   <si>
@@ -76,9 +64,6 @@
     <t>New Attenuation India Subcontinent</t>
   </si>
   <si>
-    <t>geographical scope</t>
-  </si>
-  <si>
     <t>W-Canada</t>
   </si>
   <si>
@@ -133,12 +118,6 @@
     <t>Indian Subcontinent (includes India, Pakistan, Jammu and Kashmir, Bangladesh, Nepal, Bhutan, SriLanka). For some part; China att equation is also used</t>
   </si>
   <si>
-    <t>Seismic Hazard and Risk Analysis: A Simplified Approach. CHEN Yong, CHEN Qifu, LIU Jie, CHEN Ling, LI Juan</t>
-  </si>
-  <si>
-    <t>W-China</t>
-  </si>
-  <si>
     <t>Israel, Sinai, Jordan, S-Syria</t>
   </si>
   <si>
@@ -152,6 +131,24 @@
   </si>
   <si>
     <t>A4</t>
+  </si>
+  <si>
+    <t>Bosnia,E-Croatia,Montenegro,W-Serbia, Slovenia, Hungary, Romania</t>
+  </si>
+  <si>
+    <t>geographical_scope</t>
+  </si>
+  <si>
+    <t>attenuation_type</t>
+  </si>
+  <si>
+    <t>attenuation_ID</t>
+  </si>
+  <si>
+    <t>World1</t>
+  </si>
+  <si>
+    <t>World2</t>
   </si>
 </sst>
 </file>
@@ -186,14 +183,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,7 +489,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -509,25 +500,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -535,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0.01</v>
@@ -550,7 +541,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -559,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0.19900000000000001</v>
@@ -574,7 +565,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -583,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1.5</v>
@@ -598,16 +589,16 @@
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1.67</v>
@@ -619,10 +610,10 @@
         <v>1.3</v>
       </c>
       <c r="F5">
-        <v>2.5999999999999999E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -631,22 +622,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="D6">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="E6">
-        <v>1.3</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F6">
-        <v>5.0000000000000001E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -655,10 +646,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D7">
         <v>1.5</v>
@@ -667,10 +658,10 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="F7">
-        <v>6.3E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -679,22 +670,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="E8">
-        <v>1.1299999999999999</v>
+        <v>1.4239999999999999</v>
       </c>
       <c r="F8">
-        <v>3.0999999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -703,22 +694,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D9">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="E9">
         <v>1.4239999999999999</v>
       </c>
       <c r="F9">
-        <v>2E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -727,22 +718,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D10">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="E10">
         <v>1.4239999999999999</v>
       </c>
       <c r="F10">
-        <v>1.0999999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -751,22 +742,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4.4000000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="D11">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="E11">
-        <v>1.4239999999999999</v>
+        <v>1.95</v>
       </c>
       <c r="F11">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -775,10 +766,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="D12">
         <v>1.45</v>
@@ -790,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -799,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>5.4</v>
+        <v>6.59</v>
       </c>
       <c r="D13">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="E13">
         <v>1.95</v>
@@ -814,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -823,22 +814,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>6.59</v>
+        <v>1.67</v>
       </c>
       <c r="D14">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="E14">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -847,22 +838,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="D15">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="E15">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F15">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -871,22 +862,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="C16">
-        <v>1.2</v>
-      </c>
       <c r="D16">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E16">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -895,22 +886,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="D17">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="E17">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -919,22 +910,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="D18">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="E18">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="F18">
-        <v>5.4999999999999997E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -943,22 +934,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1.85</v>
+        <v>0.8</v>
       </c>
       <c r="D19">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="E19">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="F19">
-        <v>2.5999999999999999E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -967,22 +958,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.8</v>
+        <v>6.59</v>
       </c>
       <c r="D20">
-        <v>1.8</v>
+        <v>1.18</v>
       </c>
       <c r="E20">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="F20">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -991,22 +982,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>6.59</v>
+        <v>3.8460999999999999</v>
       </c>
       <c r="D21">
-        <v>1.18</v>
+        <v>1.3844000000000001</v>
       </c>
       <c r="E21">
-        <v>1.98</v>
+        <v>1.6223000000000001</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1015,22 +1006,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>3.8460999999999999</v>
+        <v>3.45</v>
       </c>
       <c r="D22">
-        <v>1.3844000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="E22">
-        <v>1.6223000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F22">
-        <v>5.9999999999999995E-4</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1039,22 +1030,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>3.45</v>
+        <v>0.44</v>
       </c>
       <c r="D23">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="E23">
-        <v>1.1499999999999999</v>
+        <v>1.1856</v>
       </c>
       <c r="F23">
-        <v>2.3999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1063,22 +1054,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.44</v>
+        <v>0.85</v>
       </c>
       <c r="D24">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="E24">
-        <v>1.1856</v>
+        <v>1.38</v>
       </c>
       <c r="F24">
-        <v>4.7999999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1087,22 +1078,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0.85</v>
+        <v>2.6364000000000001</v>
       </c>
       <c r="D25">
-        <v>1.8</v>
+        <v>1.5152000000000001</v>
       </c>
       <c r="E25">
-        <v>1.38</v>
+        <v>1.4871000000000001</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2.2729999999999998E-3</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1111,22 +1102,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>2.6364000000000001</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="D26">
-        <v>1.5152000000000001</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="E26">
-        <v>1.4871000000000001</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="F26">
-        <v>2.2729999999999998E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1135,22 +1126,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>2.7850000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D27">
-        <v>1.2450000000000001</v>
+        <v>1.4592000000000001</v>
       </c>
       <c r="E27">
-        <v>1.0249999999999999</v>
+        <v>1.5492999999999999</v>
       </c>
       <c r="F27">
-        <v>3.5000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1159,22 +1150,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>4.4000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="D28">
-        <v>1.4592000000000001</v>
+        <v>1.65</v>
       </c>
       <c r="E28">
-        <v>1.5492999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F28">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1183,46 +1174,46 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>0.8</v>
+        <v>1.69</v>
       </c>
       <c r="D29">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="E29">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F29">
-        <v>2.5000000000000001E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f>A29+1</f>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="D30">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="E30">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="F30">
-        <v>2.5999999999999999E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1231,49 +1222,50 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C31">
+        <v>1.7</v>
+      </c>
+      <c r="D31">
+        <v>1.5</v>
+      </c>
+      <c r="E31">
+        <v>1.1726000000000001</v>
+      </c>
+      <c r="F31">
+        <v>1.06E-3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1.67</v>
+      </c>
+      <c r="D32">
+        <v>1.67</v>
+      </c>
+      <c r="E32">
         <v>1.3</v>
       </c>
-      <c r="D31">
-        <v>1.65</v>
-      </c>
-      <c r="E31">
-        <v>1.35</v>
-      </c>
-      <c r="F31">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1">
-        <v>5.6429999999999998</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.538</v>
-      </c>
-      <c r="E32" s="1">
-        <v>-2.109</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>40</v>
+      <c r="F32">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/system/attenuation_parameters.xlsx
+++ b/data/system/attenuation_parameters.xlsx
@@ -1,23 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23835" windowHeight="11055"/>
+    <workbookView xWindow="120" yWindow="100" windowWidth="23840" windowHeight="11000" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="attenuation_parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="comments" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Melanie Bieli</author>
+  </authors>
+  <commentList>
+    <comment ref="A33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Source: Bakun and Wentworth (1997)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Source: Bakun et al (2003)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Source: Dowrick and Rhoades (2005)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
-  <si>
-    <t>SNAP-Classic</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>S-Italy, Mediterranean</t>
   </si>
@@ -149,26 +204,156 @@
   </si>
   <si>
     <t>World2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The attenuation parameters describe an attenuation function of the following form: </t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>A good source of attenuation functions for different geographic regions is the GEM 
+Technical Report 2010-4:</t>
+  </si>
+  <si>
+    <t>http://www.globalquakemodel.org/media/publication/GEM-TechnicalReport_2010-4.pdf</t>
+  </si>
+  <si>
+    <t>Eastern North America</t>
+  </si>
+  <si>
+    <t>New Zealand - deep region</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>MMI = a1 + a2 * mag - a3 * log(dist+correction) - a4 * dist + B*dep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to convert the Peak Ground Acceleration values to Modified Mercalli
+Intensity, the general relation of Trifunac &amp; Brady (1975) can be used: </t>
+  </si>
+  <si>
+    <t>Implementing some of the functions in this report requires some adjustment in the code (in
+particular, MMI_attenuation_calc), since they are not all of the attenuation equation type 
+mentioned above or use other measure of intensity (e.g., Peak Ground Acceleration, PGA).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where MMI is the Modified Mercalli Intensity at distance dist from the epicenter; a1, a2, a3 and correction are region-specific parameters; mag is the Richter magnitude of the earthquake, and dep denotes the epicenter depth. </t>
+  </si>
+  <si>
+    <r>
+      <t>Remark:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SwissReSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SwissReSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> denotes the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SwissReSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>natural logarithm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SwissReSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>; make sure values are converted accordingly when adding further attenuation equations that use log10</t>
+    </r>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>Bakun and Wentworth</t>
+  </si>
+  <si>
+    <t>This table is only used by plot_attenuation_parameters, the advanced user can use these parameters in calling eq_global_hazard_set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="SwissReSans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="SwissReSans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="SwissReSans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SwissReSans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="SwissReSans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,13 +365,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -197,6 +399,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>41168</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>103900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="2933700"/>
+          <a:ext cx="4565543" cy="3990100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,787 +730,1209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="101.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
       <c r="G1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4">
         <v>0.01</v>
       </c>
       <c r="D2">
         <v>1.85</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>1.2</v>
       </c>
       <c r="F2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="4">
         <v>0.19900000000000001</v>
       </c>
       <c r="D3">
         <v>1.8959999999999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>1.3</v>
       </c>
       <c r="F3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
-        <f t="shared" ref="A4:A32" si="0">A3+1</f>
+        <f t="shared" ref="A4:A33" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4">
         <v>1.5</v>
       </c>
       <c r="D4">
         <v>1.72</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>1.37</v>
       </c>
       <c r="F4">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <f>A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4">
         <v>1.67</v>
       </c>
       <c r="D5">
         <v>1.67</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>1.3</v>
       </c>
       <c r="F5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4">
         <v>2.4</v>
       </c>
       <c r="D6">
         <v>1.5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>1.1299999999999999</v>
       </c>
       <c r="F6">
         <v>6.3E-3</v>
       </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4">
         <v>2.6</v>
       </c>
       <c r="D7">
         <v>1.5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>1.1299999999999999</v>
       </c>
       <c r="F7">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4">
         <v>4</v>
       </c>
       <c r="D8">
         <v>1.37</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>1.4239999999999999</v>
       </c>
       <c r="F8">
         <v>2E-3</v>
       </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="4">
         <v>4.3</v>
       </c>
       <c r="D9">
         <v>1.34</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>1.4239999999999999</v>
       </c>
       <c r="F9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="4">
         <v>4.4000000000000004</v>
       </c>
       <c r="D10">
         <v>1.37</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>1.4239999999999999</v>
       </c>
       <c r="F10">
         <v>2E-3</v>
       </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4">
         <v>5.2</v>
       </c>
       <c r="D11">
         <v>1.45</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>1.95</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="4">
         <v>5.4</v>
       </c>
       <c r="D12">
         <v>1.45</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>1.95</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="4">
         <v>6.59</v>
       </c>
       <c r="D13">
         <v>1.18</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>1.95</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="4">
         <v>1.67</v>
       </c>
       <c r="D14">
         <v>1.67</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>1.3</v>
       </c>
       <c r="F14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4">
         <v>1.2</v>
       </c>
       <c r="D15">
         <v>1.5</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="4">
         <v>2</v>
       </c>
       <c r="D16">
         <v>1.6</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>1.6</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4">
         <v>1.75</v>
       </c>
       <c r="D17">
         <v>1.72</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>1.45</v>
       </c>
       <c r="F17">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="4">
         <v>1.85</v>
       </c>
       <c r="D18">
         <v>1.7</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>1.37</v>
       </c>
       <c r="F18">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="4">
         <v>0.8</v>
       </c>
       <c r="D19">
         <v>1.8</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>1.57</v>
       </c>
       <c r="F19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="4">
         <v>6.59</v>
       </c>
       <c r="D20">
         <v>1.18</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>1.98</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
         <v>3.8460999999999999</v>
       </c>
       <c r="D21">
         <v>1.3844000000000001</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>1.6223000000000001</v>
       </c>
       <c r="F21">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>3.45</v>
       </c>
       <c r="D22">
         <v>1.36</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>1.1499999999999999</v>
       </c>
       <c r="F22">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>0.44</v>
       </c>
       <c r="D23">
         <v>1.7</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>1.1856</v>
       </c>
       <c r="F23">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4">
         <v>0.85</v>
       </c>
       <c r="D24">
         <v>1.8</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>1.38</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4">
         <v>2.6364000000000001</v>
       </c>
       <c r="D25">
         <v>1.5152000000000001</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>1.4871000000000001</v>
       </c>
       <c r="F25">
         <v>2.2729999999999998E-3</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>2.7850000000000001</v>
       </c>
       <c r="D26">
         <v>1.2450000000000001</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>1.0249999999999999</v>
       </c>
       <c r="F26">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4">
         <v>4.4000000000000004</v>
       </c>
       <c r="D27">
         <v>1.4592000000000001</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>1.5492999999999999</v>
       </c>
       <c r="F27">
         <v>1E-3</v>
       </c>
-      <c r="G27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
         <v>0.8</v>
       </c>
       <c r="D28">
         <v>1.65</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>1.2</v>
       </c>
       <c r="F28">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>1.69</v>
       </c>
       <c r="D29">
         <v>1.69</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>1.4</v>
       </c>
       <c r="F29">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <f>A29+1</f>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4">
         <v>1.3</v>
       </c>
       <c r="D30">
         <v>1.65</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>1.35</v>
       </c>
       <c r="F30">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="4">
         <v>1.7</v>
       </c>
       <c r="D31">
         <v>1.5</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>1.1726000000000001</v>
       </c>
       <c r="F31">
         <v>1.06E-3</v>
       </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="4">
         <v>1.67</v>
       </c>
       <c r="D32">
         <v>1.67</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>1.3</v>
       </c>
       <c r="F32">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="G32" t="s">
-        <v>44</v>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="D33">
+        <v>1.17</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1.3853993972713732</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1.41</v>
+      </c>
+      <c r="D34">
+        <v>1.68</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.90333252235876371</v>
+      </c>
+      <c r="F34">
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3.76</v>
+      </c>
+      <c r="D35">
+        <v>1.48</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1.5200306866613811</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="33" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>